--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/111.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/111.xlsx
@@ -479,13 +479,13 @@
         <v>0.07926533677420042</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.838302326693838</v>
+        <v>-1.866087699232598</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04741957291770495</v>
+        <v>-0.06076410702809218</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3213130661961163</v>
+        <v>-0.3241651888439132</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0692950719486753</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.838936656399722</v>
+        <v>-1.86249578759779</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02417131049609379</v>
+        <v>-0.03545230553845582</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2902293365886703</v>
+        <v>-0.2960720955669385</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.05886981065161242</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.875012387650373</v>
+        <v>-1.898677765139129</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05525999044122412</v>
+        <v>0.04551209002300896</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3436877480054056</v>
+        <v>-0.3521134723617282</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.04614093102289323</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.009925501584858</v>
+        <v>-2.041629394726097</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1744321261531418</v>
+        <v>0.1675143121150253</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3920809658897952</v>
+        <v>-0.4001808682880086</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.02909655596759423</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.883429454901528</v>
+        <v>-1.899561576875739</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3740995997283766</v>
+        <v>0.3672400243977482</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.4295992856651185</v>
+        <v>-0.4402506730589602</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.009685802770461192</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.731358745535305</v>
+        <v>-1.750948200509453</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5192320328079065</v>
+        <v>0.5160682543740922</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4359252685136259</v>
+        <v>-0.4466380426531984</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.009604046714071531</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.392200123411282</v>
+        <v>-1.408068597182675</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7587914469933861</v>
+        <v>0.7502366530691168</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4478563334530851</v>
+        <v>-0.4599935948974347</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.02661730914272204</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8903556069669836</v>
+        <v>-0.9015122544987628</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9057387241197756</v>
+        <v>0.9028441029557037</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4241815118496015</v>
+        <v>-0.430921461727011</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04120892062177785</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2756255871812426</v>
+        <v>-0.2896862999918216</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9341922677755282</v>
+        <v>0.9380690768712918</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3854039767772378</v>
+        <v>-0.3908894334149706</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.05380668627169365</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3960272601072165</v>
+        <v>0.3859834440941968</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8981251936300442</v>
+        <v>0.8994206113668747</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3023681720521412</v>
+        <v>-0.3097109712530089</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.06272538637806183</v>
       </c>
       <c r="E12" t="n">
-        <v>1.167238390837065</v>
+        <v>1.163844805611541</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8923721537416902</v>
+        <v>0.8972185586161751</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1954356090274577</v>
+        <v>-0.1950106238647066</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.05836385389383601</v>
       </c>
       <c r="E13" t="n">
-        <v>2.006409371148193</v>
+        <v>2.017726568630345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7157058215860224</v>
+        <v>0.7142781862430025</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03980761644709482</v>
+        <v>-0.03423086670032648</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.02497030063919682</v>
       </c>
       <c r="E14" t="n">
-        <v>2.846417729631852</v>
+        <v>2.875810962703021</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5275790562081641</v>
+        <v>0.5274248023342767</v>
       </c>
       <c r="G14" t="n">
-        <v>0.125755584826918</v>
+        <v>0.1370790783855552</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.04489750961225013</v>
       </c>
       <c r="E15" t="n">
-        <v>3.792300910290681</v>
+        <v>3.843969661966497</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3491482486175181</v>
+        <v>0.3453800468411243</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3006542935093652</v>
+        <v>0.3151447135400594</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1464585344116128</v>
       </c>
       <c r="E16" t="n">
-        <v>4.601829962509473</v>
+        <v>4.687451880650867</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09532349913569053</v>
+        <v>0.1009836718958878</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5205494868124353</v>
+        <v>0.5445107798959956</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2694288041190827</v>
       </c>
       <c r="E17" t="n">
-        <v>5.361731765852777</v>
+        <v>5.459989909499972</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09606305984238141</v>
+        <v>-0.07689622900230293</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7488971627968899</v>
+        <v>0.7780904954396538</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.403628294793964</v>
       </c>
       <c r="E18" t="n">
-        <v>6.107613780882655</v>
+        <v>6.229848957804625</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3364913325828189</v>
+        <v>-0.3158039992715639</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8722530413332248</v>
+        <v>0.9067460963574081</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5382857137000905</v>
       </c>
       <c r="E19" t="n">
-        <v>6.671178735111396</v>
+        <v>6.810355079835924</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.6177606794636452</v>
+        <v>-0.5902531212997945</v>
       </c>
       <c r="G19" t="n">
-        <v>1.122145891050043</v>
+        <v>1.156552375022555</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6603128780760449</v>
       </c>
       <c r="E20" t="n">
-        <v>7.139336094321617</v>
+        <v>7.303542491113069</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8962644747483464</v>
+        <v>-0.8617509574755862</v>
       </c>
       <c r="G20" t="n">
-        <v>1.332970012157057</v>
+        <v>1.370546570639869</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7595740801017549</v>
       </c>
       <c r="E21" t="n">
-        <v>7.458847809773565</v>
+        <v>7.630853471311061</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.196012019103682</v>
+        <v>-1.159050902097299</v>
       </c>
       <c r="G21" t="n">
-        <v>1.539604094363169</v>
+        <v>1.579020681198781</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8322225981816138</v>
       </c>
       <c r="E22" t="n">
-        <v>7.680808116163782</v>
+        <v>7.859399473704801</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.409959781156918</v>
+        <v>-1.363932314011843</v>
       </c>
       <c r="G22" t="n">
-        <v>1.757420008407001</v>
+        <v>1.800156201569436</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.883856339811887</v>
       </c>
       <c r="E23" t="n">
-        <v>7.843116245894945</v>
+        <v>8.034874273385643</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.618036451887701</v>
+        <v>-1.571414792524336</v>
       </c>
       <c r="G23" t="n">
-        <v>1.884416593170904</v>
+        <v>1.936061734559901</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.9239809688953715</v>
       </c>
       <c r="E24" t="n">
-        <v>7.95380284452393</v>
+        <v>8.145468004886473</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.774914215650377</v>
+        <v>-1.735238702669311</v>
       </c>
       <c r="G24" t="n">
-        <v>1.980017792541344</v>
+        <v>2.035043927002895</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9572264644457646</v>
       </c>
       <c r="E25" t="n">
-        <v>7.975747819113105</v>
+        <v>8.164252349080074</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.901580256398807</v>
+        <v>-1.861404992346728</v>
       </c>
       <c r="G25" t="n">
-        <v>2.076404427453313</v>
+        <v>2.134040285617981</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9829187332466178</v>
       </c>
       <c r="E26" t="n">
-        <v>7.964926437654162</v>
+        <v>8.144621182599213</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.023274757752609</v>
+        <v>-1.981706486778179</v>
       </c>
       <c r="G26" t="n">
-        <v>2.117300592262948</v>
+        <v>2.17347890872129</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9974357964585984</v>
       </c>
       <c r="E27" t="n">
-        <v>7.879428867023352</v>
+        <v>8.063800022777786</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.085731836485821</v>
+        <v>-2.043607149752011</v>
       </c>
       <c r="G27" t="n">
-        <v>2.162940850704183</v>
+        <v>2.222083045167934</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.000501950559938</v>
       </c>
       <c r="E28" t="n">
-        <v>7.76878319289152</v>
+        <v>7.955499637136692</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.118607586862868</v>
+        <v>-2.077110146748896</v>
       </c>
       <c r="G28" t="n">
-        <v>2.154727618929235</v>
+        <v>2.213652598754248</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9947167363821906</v>
       </c>
       <c r="E29" t="n">
-        <v>7.60808843275969</v>
+        <v>7.790662058677599</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.06124954307311</v>
+        <v>-2.022451545752169</v>
       </c>
       <c r="G29" t="n">
-        <v>2.11147042543765</v>
+        <v>2.168147705957445</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9835869554565233</v>
       </c>
       <c r="E30" t="n">
-        <v>7.368406245082749</v>
+        <v>7.549352335229234</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.046446680246838</v>
+        <v>-2.008829984276433</v>
       </c>
       <c r="G30" t="n">
-        <v>2.021176818544236</v>
+        <v>2.073793129731075</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9704415125538309</v>
       </c>
       <c r="E31" t="n">
-        <v>7.144434342255511</v>
+        <v>7.323708824095173</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.996516432690498</v>
+        <v>-1.958679374043111</v>
       </c>
       <c r="G31" t="n">
-        <v>1.96402733228805</v>
+        <v>2.019535116600719</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9571171570499646</v>
       </c>
       <c r="E32" t="n">
-        <v>6.951420247506014</v>
+        <v>7.125673608348728</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.920978468049717</v>
+        <v>-1.881181755596311</v>
       </c>
       <c r="G32" t="n">
-        <v>1.892355945618745</v>
+        <v>1.946379429900027</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9444976396994575</v>
       </c>
       <c r="E33" t="n">
-        <v>6.653826748318178</v>
+        <v>6.821547929807494</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.877021623058713</v>
+        <v>-1.839221553860677</v>
       </c>
       <c r="G33" t="n">
-        <v>1.792602483806314</v>
+        <v>1.841664659817256</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9328974424895464</v>
       </c>
       <c r="E34" t="n">
-        <v>6.376265790487135</v>
+        <v>6.532595795595599</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.821528004918136</v>
+        <v>-1.783992370932479</v>
       </c>
       <c r="G34" t="n">
-        <v>1.709566679081217</v>
+        <v>1.758280996866352</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9197648249193771</v>
       </c>
       <c r="E35" t="n">
-        <v>6.033875707107082</v>
+        <v>6.183453170185166</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.830070206689435</v>
+        <v>-1.793164180352298</v>
       </c>
       <c r="G35" t="n">
-        <v>1.590119090023072</v>
+        <v>1.636055264059111</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9029053489785883</v>
       </c>
       <c r="E36" t="n">
-        <v>5.665289223491222</v>
+        <v>5.805184894954184</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.831799266694184</v>
+        <v>-1.800259858551121</v>
       </c>
       <c r="G36" t="n">
-        <v>1.506433215400878</v>
+        <v>1.547094851361439</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8788195671508052</v>
       </c>
       <c r="E37" t="n">
-        <v>5.28411688298144</v>
+        <v>5.413624028243818</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.808913815680032</v>
+        <v>-1.776751095964935</v>
       </c>
       <c r="G37" t="n">
-        <v>1.390511429174447</v>
+        <v>1.427814108330152</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8447492688148209</v>
       </c>
       <c r="E38" t="n">
-        <v>4.946840787726493</v>
+        <v>5.069431692969876</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.800698222876403</v>
+        <v>-1.774048505133662</v>
       </c>
       <c r="G38" t="n">
-        <v>1.290994070230211</v>
+        <v>1.323311830828756</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8012761749336474</v>
       </c>
       <c r="E39" t="n">
-        <v>4.577884409617126</v>
+        <v>4.693389080776414</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.792621143755449</v>
+        <v>-1.772831001343335</v>
       </c>
       <c r="G39" t="n">
-        <v>1.201024711275785</v>
+        <v>1.233153589579774</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7498901540777613</v>
       </c>
       <c r="E40" t="n">
-        <v>4.228301058852729</v>
+        <v>4.335197419437622</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.80330794657952</v>
+        <v>-1.788013202777841</v>
       </c>
       <c r="G40" t="n">
-        <v>1.145543685288178</v>
+        <v>1.175501991223894</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6950090792837561</v>
       </c>
       <c r="E41" t="n">
-        <v>3.926212161054458</v>
+        <v>4.023883195569408</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.865162962998834</v>
+        <v>-1.850024834099725</v>
       </c>
       <c r="G41" t="n">
-        <v>1.083105494784422</v>
+        <v>1.114112097454925</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6398983363261322</v>
       </c>
       <c r="E42" t="n">
-        <v>3.526445932664752</v>
+        <v>3.611452409329717</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.846692635619931</v>
+        <v>-1.834963832137559</v>
       </c>
       <c r="G42" t="n">
-        <v>1.012940444414202</v>
+        <v>1.038275856190658</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5870883280229464</v>
       </c>
       <c r="E43" t="n">
-        <v>3.260663359918403</v>
+        <v>3.337223649978469</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.862496574607351</v>
+        <v>-1.845377542644084</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9404033472281808</v>
+        <v>0.9611426231704385</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5382177478793777</v>
       </c>
       <c r="E44" t="n">
-        <v>2.981638564304552</v>
+        <v>3.051358167263444</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.868338546576058</v>
+        <v>-1.853340505378744</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8451563021600335</v>
+        <v>0.8652392121287089</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4918863040845402</v>
       </c>
       <c r="E45" t="n">
-        <v>2.731866914060073</v>
+        <v>2.794265754085796</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.833320556174921</v>
+        <v>-1.824747661030757</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7886206833611554</v>
+        <v>0.8078882514249971</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4480115263439342</v>
       </c>
       <c r="E46" t="n">
-        <v>2.506201366658315</v>
+        <v>2.568671037544497</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.772123479748311</v>
+        <v>-1.767170041573578</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7329743853658122</v>
+        <v>0.7454358947491497</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4064191475549433</v>
       </c>
       <c r="E47" t="n">
-        <v>2.282238907945804</v>
+        <v>2.332580761502364</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.732329915333148</v>
+        <v>-1.729629685530556</v>
       </c>
       <c r="G47" t="n">
-        <v>0.658650776477115</v>
+        <v>0.6698719587928675</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3658740284271877</v>
       </c>
       <c r="E48" t="n">
-        <v>2.08015216698113</v>
+        <v>2.130934745891654</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.623626580797001</v>
+        <v>-1.628998708058</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5459698956214414</v>
+        <v>0.5605311465125941</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3263209814308087</v>
       </c>
       <c r="E49" t="n">
-        <v>1.913339194524804</v>
+        <v>1.959931734534426</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.570876477984851</v>
+        <v>-1.580792011439484</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5033423097783761</v>
+        <v>0.5211428920211656</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2866782651051222</v>
       </c>
       <c r="E50" t="n">
-        <v>1.82384361532589</v>
+        <v>1.867935038951765</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.479754937033633</v>
+        <v>-1.495032366624977</v>
       </c>
       <c r="G50" t="n">
-        <v>0.430238565708687</v>
+        <v>0.4499374150117651</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2475009033070624</v>
       </c>
       <c r="E51" t="n">
-        <v>1.649582384387569</v>
+        <v>1.690506881541387</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.455624436894532</v>
+        <v>-1.474357625466693</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3718141239642481</v>
+        <v>0.3889567662143338</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2092751352252241</v>
       </c>
       <c r="E52" t="n">
-        <v>1.510163640718361</v>
+        <v>1.550741853665493</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.41641247254469</v>
+        <v>-1.435807536157357</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3170067781605581</v>
+        <v>0.3322543013885979</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1726308953536737</v>
       </c>
       <c r="E53" t="n">
-        <v>1.434546188111955</v>
+        <v>1.473597602511425</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.358911193014894</v>
+        <v>-1.378979936811477</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2887688751244238</v>
+        <v>0.3009958556586875</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1382613622833431</v>
       </c>
       <c r="E54" t="n">
-        <v>1.322885271646884</v>
+        <v>1.364041149611533</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.268859198056599</v>
+        <v>-1.291661226057322</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2462609147345774</v>
+        <v>0.2588231613416782</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1059032449372877</v>
       </c>
       <c r="E55" t="n">
-        <v>1.20437107592767</v>
+        <v>1.243057317890998</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.221406456597187</v>
+        <v>-1.250033929365843</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2029927031091428</v>
+        <v>0.2161420588484887</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.07553881406140837</v>
       </c>
       <c r="E56" t="n">
-        <v>1.14646606049326</v>
+        <v>1.191673463676137</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.197948062622882</v>
+        <v>-1.224295568694334</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1777218261166602</v>
+        <v>0.1930811047023124</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.04658426316788267</v>
       </c>
       <c r="E57" t="n">
-        <v>1.077316252456278</v>
+        <v>1.124777651020858</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.176705100561808</v>
+        <v>-1.203371345505324</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1406725640394846</v>
+        <v>0.1531356474419435</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.01882104059310614</v>
       </c>
       <c r="E58" t="n">
-        <v>1.012948314509808</v>
+        <v>1.05484555548059</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.185182767549134</v>
+        <v>-1.209832693998263</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1233740938963901</v>
+        <v>0.1359961532301003</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.007482566151203144</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9662440191425741</v>
+        <v>1.007478598063288</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.194882660384149</v>
+        <v>-1.219986691349774</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1105505601151534</v>
+        <v>0.1238494476710229</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.03303704999061582</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9216205770536996</v>
+        <v>0.9556949429916168</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.198907427277315</v>
+        <v>-1.223100888181267</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08298161520557183</v>
+        <v>0.09462935670319693</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.05837676773686864</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9043819196372145</v>
+        <v>0.9346518813589479</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.184158081101167</v>
+        <v>-1.215327594750724</v>
       </c>
       <c r="G61" t="n">
-        <v>0.07428673357950684</v>
+        <v>0.08501996996765622</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.08372529375070419</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8533349055143119</v>
+        <v>0.8800475840219059</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.188830556862748</v>
+        <v>-1.222985197775851</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07158886480559745</v>
+        <v>0.08258811042524666</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1096917836998354</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8119319065476186</v>
+        <v>0.8376970255441896</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.226381144030058</v>
+        <v>-1.263465821537463</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04563486351447042</v>
+        <v>0.05280766865023765</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1364389337011356</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7519822402746392</v>
+        <v>0.7755405844631467</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.241386268313417</v>
+        <v>-1.282454001207273</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02676394826919647</v>
+        <v>0.03224468284956546</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1639367231144047</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7135006207970801</v>
+        <v>0.7348695043878581</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.29636675622045</v>
+        <v>-1.335914773652691</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02348818619744929</v>
+        <v>-0.01455877572231049</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1921708182039028</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6689149551671167</v>
+        <v>0.6841341460509731</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.336268927954983</v>
+        <v>-1.378976788773235</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.04511678294324204</v>
+        <v>-0.04001853500934911</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2208144712145938</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6483110448692908</v>
+        <v>0.6550793270908837</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.398366343318977</v>
+        <v>-1.445438959160596</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.07831127219235225</v>
+        <v>-0.07315163751272859</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2491706249811345</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6241262410705057</v>
+        <v>0.6192814102151422</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.445726217650233</v>
+        <v>-1.498916258806787</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.09736792169393967</v>
+        <v>-0.09680284882939272</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2760699372873322</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5659992889399926</v>
+        <v>0.5542256259126634</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.485024753051747</v>
+        <v>-1.536645497144364</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.09371147527515818</v>
+        <v>-0.0964990631389817</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.30077958552679</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4762896431405812</v>
+        <v>0.4639855356693737</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.563630480959943</v>
+        <v>-1.616769366495054</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1200385190980335</v>
+        <v>-0.1235296935090784</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3226666842095833</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3709468394284114</v>
+        <v>0.3527826587686014</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.627593895992239</v>
+        <v>-1.68281363480571</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1346485645819465</v>
+        <v>-0.1408061273844748</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3408769267770083</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2767732754009912</v>
+        <v>0.2520139546229314</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.71310405877602</v>
+        <v>-1.773157610311005</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1437353769692153</v>
+        <v>-0.1543725981909654</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3546169981515658</v>
       </c>
       <c r="E73" t="n">
-        <v>0.200297982373476</v>
+        <v>0.1706481841855349</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.79177510847775</v>
+        <v>-1.853265739470483</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1625149991054538</v>
+        <v>-0.1770400475568166</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3632754372309389</v>
       </c>
       <c r="E74" t="n">
-        <v>0.07461570357585869</v>
+        <v>0.04340605243870864</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.81517998580193</v>
+        <v>-1.882337872640906</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1884249278611844</v>
+        <v>-0.2038377230969608</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3668371677510359</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01244037426536021</v>
+        <v>-0.0223753546786897</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.889104580843378</v>
+        <v>-1.958144207541869</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2207064860199403</v>
+        <v>-0.237257297080417</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3655779392405103</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.0585274258567239</v>
+        <v>-0.0960803740527157</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.928080442325026</v>
+        <v>-1.994596916372071</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2306716010768949</v>
+        <v>-0.2501060151675945</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3597843171465145</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1157666312028234</v>
+        <v>-0.1619042796863892</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.949412336466453</v>
+        <v>-2.018965880408049</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.245711353780923</v>
+        <v>-0.2645728249114691</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.349863511881536</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1407998313079895</v>
+        <v>-0.1873907972984899</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.922765766761954</v>
+        <v>-1.98233688143626</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2283735331597959</v>
+        <v>-0.2476190649559394</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3362091590197945</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1677989812956603</v>
+        <v>-0.2112230208141036</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.930989229661189</v>
+        <v>-1.992681335101449</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2257417731889812</v>
+        <v>-0.2458766257886596</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3191572070624341</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1668813281479419</v>
+        <v>-0.2112828335407131</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.917745432774565</v>
+        <v>-1.964270289961971</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.197143419774069</v>
+        <v>-0.2153123224912428</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.29857790259152</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.141435735032995</v>
+        <v>-0.1882092872415663</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.910307405416859</v>
+        <v>-1.952540699470038</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1888089885267818</v>
+        <v>-0.2084621912753422</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2737177567261884</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.05756727419273048</v>
+        <v>-0.09786216369802808</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.85302019248756</v>
+        <v>-1.891984248825798</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2050874942792735</v>
+        <v>-0.2218822783035519</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2452311390403227</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1074308542167354</v>
+        <v>0.06924672435310203</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.788073802514011</v>
+        <v>-1.822857264066075</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1568170498863453</v>
+        <v>-0.1748442908826021</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2139617601138266</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2550407933931926</v>
+        <v>0.224131779908211</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.683930401372273</v>
+        <v>-1.71126403042322</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1102984887754248</v>
+        <v>-0.1291111653132107</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1814232683436773</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4249939339965131</v>
+        <v>0.4082054460487199</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.519412348794803</v>
+        <v>-1.542507144352088</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08334970739963575</v>
+        <v>-0.100259394819769</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1495129611877903</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6686426498591318</v>
+        <v>0.6565053884147821</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.364334475897335</v>
+        <v>-1.379179837239882</v>
       </c>
       <c r="G86" t="n">
-        <v>0.00284830174015382</v>
+        <v>-0.01394648228412452</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1194997530501379</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9364714474631716</v>
+        <v>0.9319477165085535</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.157836546345216</v>
+        <v>-1.166638461271529</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05295720046676122</v>
+        <v>0.03877056612647812</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.09313141445165374</v>
       </c>
       <c r="E88" t="n">
-        <v>1.161497943101682</v>
+        <v>1.156961619994093</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9903546157623375</v>
+        <v>-0.9973165023358506</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09940807875546581</v>
+        <v>0.08650112196080018</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.07083629566956465</v>
       </c>
       <c r="E89" t="n">
-        <v>1.387273671841931</v>
+        <v>1.387388575237786</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7704358121724481</v>
+        <v>-0.7653989509842859</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1574279975857305</v>
+        <v>0.1420939033060192</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05334465071482844</v>
       </c>
       <c r="E90" t="n">
-        <v>1.565227551638823</v>
+        <v>1.576953994092513</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5238515506486037</v>
+        <v>-0.5108281164389618</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1757653203488835</v>
+        <v>0.1646905218114118</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04015652636656435</v>
       </c>
       <c r="E91" t="n">
-        <v>1.734933571240099</v>
+        <v>1.749452323614977</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2447999967096899</v>
+        <v>-0.2316238826452818</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1292971278498446</v>
+        <v>0.1228719817966952</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.03104477420550708</v>
       </c>
       <c r="E92" t="n">
-        <v>1.774452469318596</v>
+        <v>1.790227288952271</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.05589723990503045</v>
+        <v>-0.039782432141154</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1408850566208602</v>
+        <v>0.1369563048940937</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02496515974109022</v>
       </c>
       <c r="E93" t="n">
-        <v>1.776956733740585</v>
+        <v>1.787499513815057</v>
       </c>
       <c r="F93" t="n">
-        <v>0.149704285757508</v>
+        <v>0.1682163246431254</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1047817800355864</v>
+        <v>0.100409154916613</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02101694128272463</v>
       </c>
       <c r="E94" t="n">
-        <v>1.705401824486256</v>
+        <v>1.714949824476066</v>
       </c>
       <c r="F94" t="n">
-        <v>0.3224780686261993</v>
+        <v>0.3430017039488389</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1107063880081622</v>
+        <v>0.1051941730453671</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.0190038851118204</v>
       </c>
       <c r="E95" t="n">
-        <v>1.667079180939948</v>
+        <v>1.675599346443549</v>
       </c>
       <c r="F95" t="n">
-        <v>0.430369209295755</v>
+        <v>0.4472678785820391</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04476600495951244</v>
+        <v>0.04282366536382739</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.01781752722928647</v>
       </c>
       <c r="E96" t="n">
-        <v>1.550902403615865</v>
+        <v>1.559776723421759</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5027945511241635</v>
+        <v>0.5166632336019439</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01925879681851434</v>
+        <v>-0.02472536522679163</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.01576730877803845</v>
       </c>
       <c r="E97" t="n">
-        <v>1.496073021544477</v>
+        <v>1.510542979326595</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5108456589296165</v>
+        <v>0.5222037809089223</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03964234443935825</v>
+        <v>-0.04356007803227566</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.01077811271404156</v>
       </c>
       <c r="E98" t="n">
-        <v>1.370025570310718</v>
+        <v>1.382271439074438</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5348935230648484</v>
+        <v>0.5430012955586683</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1083356869311629</v>
+        <v>-0.1097507301212122</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.001012520023382529</v>
       </c>
       <c r="E99" t="n">
-        <v>1.285832861531466</v>
+        <v>1.30134009791452</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5322350047689716</v>
+        <v>0.5419482767665181</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1079516262655655</v>
+        <v>-0.111063462068377</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.007607051351011218</v>
       </c>
       <c r="E100" t="n">
-        <v>1.168864352589369</v>
+        <v>1.188840229257796</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5362912520445634</v>
+        <v>0.5464153430327694</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1571822223224871</v>
+        <v>-0.1577819236077027</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.009739662905147769</v>
       </c>
       <c r="E101" t="n">
-        <v>1.063162672517543</v>
+        <v>1.085967061546947</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4855952441857109</v>
+        <v>0.4916174413438073</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1818612681253606</v>
+        <v>-0.1830685407913982</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.0006933013853800709</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9879245585193698</v>
+        <v>1.00312486117377</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4551127898826017</v>
+        <v>0.4594665267721195</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2222254144719954</v>
+        <v>-0.2257748275905285</v>
       </c>
     </row>
   </sheetData>
